--- a/06-03-2023/data/output/xlsx/Causality for Category/9.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/9.xlsx
@@ -49,75 +49,72 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__11</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__11</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__12</t>
   </si>
   <si>
@@ -139,7 +136,7 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
@@ -229,33 +226,33 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
@@ -283,51 +280,51 @@
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
@@ -346,7 +343,7 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
@@ -385,24 +382,24 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__2</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
@@ -434,6 +431,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>

--- a/06-03-2023/data/output/xlsx/Causality for Category/9.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/9.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="167">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,84 +52,99 @@
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__12</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__13</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__14</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__15</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__16</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__12</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__13</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__14</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__15</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__16</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__17</t>
   </si>
   <si>
@@ -232,48 +247,63 @@
     <t>num_of_equals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_equals__9</t>
   </si>
   <si>
     <t>num_of_equals__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_equals__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_equals__12</t>
   </si>
   <si>
@@ -286,45 +316,36 @@
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
@@ -352,30 +373,57 @@
     <t>num_of_unknowns__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_unknowns__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_unknowns__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_unknowns__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__10,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_unknowns__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__2,pairs_of_parentheses__3</t>
+  </si>
+  <si>
     <t>num_of_unknowns__11</t>
   </si>
   <si>
@@ -391,13 +439,13 @@
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__3</t>
   </si>
   <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,pairs_of_parentheses__2</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_adds_and_subs__10,num_of_adds_and_subs__11,num_of_adds_and_subs__12,num_of_adds_and_subs__13,num_of_adds_and_subs__14,num_of_adds_and_subs__15,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_equals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,num_of_unknowns__10,pairs_of_parentheses__2</t>
   </si>
   <si>
     <t>pairs_of_parentheses__4</t>
@@ -589,10 +637,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$15</c:f>
+              <c:f>AddsSubs!$C$4:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -622,45 +670,75 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$15</c:f>
+              <c:f>AddsSubs!$D$4:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.02553626149131767</c:v>
+                  <c:v>0.04392236976506639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02542372881355932</c:v>
+                  <c:v>0.04600484261501211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03883495145631068</c:v>
+                  <c:v>0.08090614886731391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04040404040404041</c:v>
+                  <c:v>0.0707070707070707</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04761904761904762</c:v>
+                  <c:v>0.06666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.06329113924050633</c:v>
+                  <c:v>0.08860759493670886</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.03846153846153846</c:v>
+                  <c:v>0.0576923076923077</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.05</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.04545454545454546</c:v>
+                  <c:v>0.09090909090909091</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.05555555555555555</c:v>
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1666666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,7 +795,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 9</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -781,10 +859,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$12</c:f>
+              <c:f>MultsDivs!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -802,21 +880,18 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$12</c:f>
+              <c:f>MultsDivs!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.06417112299465241</c:v>
+                  <c:v>0.0748663101604278</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.06338028169014084</c:v>
@@ -825,16 +900,13 @@
                   <c:v>0.07526881720430108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0821917808219178</c:v>
+                  <c:v>0.0684931506849315</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09259259259259259</c:v>
+                  <c:v>0.03703703703703703</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1081081081081081</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.04545454545454546</c:v>
+                  <c:v>0.02702702702702703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -891,7 +963,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 9</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -955,10 +1027,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$13</c:f>
+              <c:f>Equations!$C$4:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -982,39 +1054,57 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$13</c:f>
+              <c:f>Equations!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.02507522567703109</c:v>
+                  <c:v>0.04312938816449348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02522704339051463</c:v>
+                  <c:v>0.04339051463168517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03339517625231911</c:v>
+                  <c:v>0.04267161410018553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02616279069767442</c:v>
+                  <c:v>0.04651162790697674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01470588235294118</c:v>
+                  <c:v>0.04901960784313725</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01470588235294118</c:v>
+                  <c:v>0.05147058823529412</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0108695652173913</c:v>
+                  <c:v>0.04347826086956522</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.01851851851851852</c:v>
+                  <c:v>0.05555555555555555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,7 +1161,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 9</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1173,25 +1263,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.022508038585209</c:v>
+                  <c:v>0.03215434083601286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02439024390243903</c:v>
+                  <c:v>0.02642276422764228</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02465753424657534</c:v>
+                  <c:v>0.03013698630136986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02371541501976284</c:v>
+                  <c:v>0.03162055335968379</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02395209580838323</c:v>
+                  <c:v>0.01796407185628742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02380952380952381</c:v>
+                  <c:v>0.01587301587301587</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01176470588235294</c:v>
+                  <c:v>0.02352941176470588</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.01538461538461539</c:v>
@@ -1251,7 +1341,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 9</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1315,30 +1405,78 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$7</c:f>
+              <c:f>Unknowns!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$7</c:f>
+              <c:f>Unknowns!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.0250501002004008</c:v>
+                  <c:v>0.04308617234468938</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01464128843338214</c:v>
+                  <c:v>0.04538799414348463</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.07368421052631578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09615384615384616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08695652173913043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.07142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09090909090909091</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,7 +1533,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 9</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1482,13 +1620,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.02010050251256281</c:v>
+                  <c:v>0.03768844221105527</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02547770700636943</c:v>
+                  <c:v>0.05732484076433121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02666666666666667</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,7 +1683,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 9</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2111,16 +2249,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02553626149131767</v>
+        <v>0.04392236976506639</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>0.0517682578026143</v>
+        <v>0.09146194103629705</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2134,16 +2272,16 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.02542372881355932</v>
+        <v>0.04600484261501211</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>0.008079396818344254</v>
+        <v>0.06212370581598978</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2157,16 +2295,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0.03883495145631068</v>
+        <v>0.08090614886731391</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1">
-        <v>-0.008570191486590896</v>
+        <v>0.002107782587114402</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2180,16 +2318,16 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0.04040404040404041</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>0.002493625109162794</v>
+        <v>0.02218400782751972</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2203,16 +2341,16 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0.04761904761904762</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="1">
-        <v>0.009500291399058345</v>
+        <v>0.01676816052627465</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2226,16 +2364,16 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0.06329113924050633</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="E8" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1">
-        <v>0.0210943201023842</v>
+        <v>0.04117477595705071</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2249,16 +2387,16 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0.03846153846153846</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="E9" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="1">
-        <v>-0.007137690218385525</v>
+        <v>0.02175013616068974</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2272,16 +2410,16 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="1">
-        <v>0.006258186436983229</v>
+        <v>0.03629667046783493</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2295,16 +2433,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>0.04545454545454546</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="1">
-        <v>-0.01933151173985414</v>
+        <v>0.04938349185276421</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2318,16 +2456,16 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="1">
-        <v>-0.0124091192138611</v>
+        <v>0.08104961698269893</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2341,14 +2479,16 @@
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.08509011529761694</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2362,19 +2502,21 @@
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.09738069250048327</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>8</v>
@@ -2383,19 +2525,21 @@
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.1079733319946047</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -2404,19 +2548,21 @@
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.1200716321385876</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -2425,19 +2571,21 @@
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.1602125575600965</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -2449,16 +2597,16 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2470,16 +2618,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2491,16 +2639,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2512,16 +2660,16 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1">
         <v>622</v>
@@ -2530,19 +2678,19 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.022508038585209</v>
+        <v>0.03215434083601286</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1">
         <v>492</v>
@@ -2551,19 +2699,19 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.02439024390243903</v>
+        <v>0.02642276422764228</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1">
         <v>365</v>
@@ -2572,19 +2720,19 @@
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0.02465753424657534</v>
+        <v>0.03013698630136986</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1">
         <v>253</v>
@@ -2593,19 +2741,19 @@
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0.02371541501976284</v>
+        <v>0.03162055335968379</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1">
         <v>167</v>
@@ -2614,19 +2762,19 @@
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0.02395209580838323</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="E26" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1">
         <v>126</v>
@@ -2635,19 +2783,19 @@
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0.02380952380952381</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="E27" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1">
         <v>85</v>
@@ -2656,19 +2804,19 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0.01176470588235294</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="E28" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1">
         <v>65</v>
@@ -2680,16 +2828,16 @@
         <v>0.01538461538461539</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1">
         <v>41</v>
@@ -2701,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
@@ -2722,16 +2870,16 @@
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
@@ -2743,16 +2891,16 @@
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1">
         <v>15</v>
@@ -2764,16 +2912,16 @@
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1">
         <v>10</v>
@@ -2785,16 +2933,16 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -2806,16 +2954,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -2827,16 +2975,16 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -2848,16 +2996,16 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
@@ -2869,16 +3017,16 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -2890,16 +3038,16 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -2911,16 +3059,16 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -2932,16 +3080,16 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -2953,16 +3101,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -2974,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -2995,16 +3143,16 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -3016,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -3037,16 +3185,16 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -3058,16 +3206,16 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -3079,16 +3227,16 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -3100,16 +3248,16 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -3121,16 +3269,16 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -3142,16 +3290,16 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B52" s="1">
         <v>997</v>
@@ -3160,21 +3308,21 @@
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.02507522567703109</v>
+        <v>0.04312938816449348</v>
       </c>
       <c r="E52" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G52" s="1">
-        <v>0.04994107054877479</v>
+        <v>0.08940690440408074</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B53" s="1">
         <v>991</v>
@@ -3183,21 +3331,21 @@
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.02522704339051463</v>
+        <v>0.04339051463168517</v>
       </c>
       <c r="E53" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G53" s="1">
-        <v>0.05012873326296677</v>
+        <v>0.08953563414656183</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B54" s="1">
         <v>539</v>
@@ -3206,21 +3354,19 @@
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0.03339517625231911</v>
+        <v>0.04267161410018553</v>
       </c>
       <c r="E54" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" s="1">
-        <v>0.04204742331495286</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B55" s="1">
         <v>344</v>
@@ -3229,21 +3375,21 @@
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0.02616279069767442</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="E55" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G55" s="1">
-        <v>-0.08713141795699021</v>
+        <v>0.07326307295023916</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B56" s="1">
         <v>204</v>
@@ -3252,19 +3398,21 @@
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0.01470588235294118</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="E56" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.05742653134956912</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B57" s="1">
         <v>136</v>
@@ -3273,19 +3421,21 @@
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0.01470588235294118</v>
+        <v>0.05147058823529412</v>
       </c>
       <c r="E57" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.02873623783303968</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B58" s="1">
         <v>92</v>
@@ -3294,19 +3444,21 @@
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.0108695652173913</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E58" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.01715519201156923</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B59" s="1">
         <v>54</v>
@@ -3315,19 +3467,21 @@
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.01851851851851852</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E59" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.04915517980222083</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B60" s="1">
         <v>35</v>
@@ -3336,19 +3490,19 @@
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E60" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B61" s="1">
         <v>17</v>
@@ -3357,19 +3511,21 @@
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E61" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" s="1">
+        <v>-0.1042803694859422</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
@@ -3378,19 +3534,21 @@
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E62" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G62" s="1">
+        <v>-0.03695560533629802</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3402,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3423,16 +3581,16 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -3444,16 +3602,16 @@
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B66" s="1">
         <v>187</v>
@@ -3462,21 +3620,21 @@
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.06417112299465241</v>
+        <v>0.0748663101604278</v>
       </c>
       <c r="E66" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G66" s="1">
-        <v>0.04063559608623943</v>
+        <v>-0.02680945779140499</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B67" s="1">
         <v>142</v>
@@ -3488,18 +3646,18 @@
         <v>0.06338028169014084</v>
       </c>
       <c r="E67" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G67" s="1">
-        <v>0.04021414926374025</v>
+        <v>-0.03965970750936425</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B68" s="1">
         <v>93</v>
@@ -3511,18 +3669,18 @@
         <v>0.07526881720430108</v>
       </c>
       <c r="E68" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G68" s="1">
-        <v>0.04630048622445786</v>
+        <v>-0.01916905731907093</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B69" s="1">
         <v>73</v>
@@ -3531,21 +3689,21 @@
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0.0821917808219178</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="E69" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G69" s="1">
-        <v>0.03620335551210777</v>
+        <v>-0.0175093509523953</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B70" s="1">
         <v>54</v>
@@ -3554,21 +3712,19 @@
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0.09259259259259259</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E70" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0.00819649660125784</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B71" s="1">
         <v>37</v>
@@ -3577,21 +3733,19 @@
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0.1081081081081081</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E71" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G71" s="1">
-        <v>0.01026808146116772</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B72" s="1">
         <v>22</v>
@@ -3600,21 +3754,19 @@
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G72" s="1">
-        <v>-0.03285478053383536</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B73" s="1">
         <v>17</v>
@@ -3626,16 +3778,16 @@
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B74" s="1">
         <v>11</v>
@@ -3647,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="E74" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B75" s="1">
         <v>8</v>
@@ -3668,16 +3820,16 @@
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B76" s="1">
         <v>5</v>
@@ -3689,16 +3841,16 @@
         <v>0</v>
       </c>
       <c r="E76" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -3710,16 +3862,16 @@
         <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -3731,16 +3883,16 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -3752,16 +3904,16 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B80" s="1">
         <v>998</v>
@@ -3770,19 +3922,19 @@
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="E80" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B81" s="1">
         <v>683</v>
@@ -3791,19 +3943,21 @@
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.01464128843338214</v>
+        <v>0.04538799414348463</v>
       </c>
       <c r="E81" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.02957761004065087</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B82" s="1">
         <v>95</v>
@@ -3812,19 +3966,21 @@
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="E82" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.0892446780684895</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B83" s="1">
         <v>52</v>
@@ -3833,19 +3989,21 @@
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="E83" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.09522855245489704</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B84" s="1">
         <v>23</v>
@@ -3854,19 +4012,21 @@
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E84" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.1019596520163967</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -3875,19 +4035,21 @@
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E85" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.09031439794889273</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B86" s="1">
         <v>11</v>
@@ -3896,19 +4058,21 @@
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E86" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.1039203188755281</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B87" s="1">
         <v>7</v>
@@ -3917,19 +4081,21 @@
         <v>85</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E87" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.1396528886019186</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B88" s="1">
         <v>5</v>
@@ -3938,19 +4104,21 @@
         <v>86</v>
       </c>
       <c r="D88" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E88" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.2018950503905449</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -3959,19 +4127,21 @@
         <v>87</v>
       </c>
       <c r="D89" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E89" s="1">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1" t="s">
-        <v>30</v>
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.2664442771338406</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -3983,16 +4153,16 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -4004,16 +4174,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -4025,16 +4195,16 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B93" s="1">
         <v>398</v>
@@ -4043,19 +4213,19 @@
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.02010050251256281</v>
+        <v>0.03768844221105527</v>
       </c>
       <c r="E93" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B94" s="1">
         <v>157</v>
@@ -4064,21 +4234,21 @@
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.02547770700636943</v>
+        <v>0.05732484076433121</v>
       </c>
       <c r="E94" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="G94" s="1">
-        <v>-0.08243579774654008</v>
+        <v>0.04118998596882669</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B95" s="1">
         <v>75</v>
@@ -4087,21 +4257,21 @@
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.02666666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="E95" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="G95" s="1">
-        <v>-0.04366095561890965</v>
+        <v>0.05856070749022073</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B96" s="1">
         <v>43</v>
@@ -4113,16 +4283,16 @@
         <v>0</v>
       </c>
       <c r="E96" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B97" s="1">
         <v>25</v>
@@ -4134,16 +4304,16 @@
         <v>0</v>
       </c>
       <c r="E97" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B98" s="1">
         <v>17</v>
@@ -4155,16 +4325,16 @@
         <v>0</v>
       </c>
       <c r="E98" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B99" s="1">
         <v>8</v>
@@ -4176,16 +4346,16 @@
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -4197,16 +4367,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -4218,16 +4388,16 @@
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -4239,16 +4409,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -4260,16 +4430,16 @@
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -4281,16 +4451,16 @@
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -4302,16 +4472,16 @@
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -4323,16 +4493,16 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -4344,11 +4514,11 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4358,7 +4528,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4369,7 +4539,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4392,25 +4562,25 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4424,13 +4594,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.02553626149131767</v>
+        <v>0.04392236976506639</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0004861612909168693</v>
+        <v>0.0008361974203770148</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4467,13 +4637,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.02542372881355932</v>
+        <v>0.04600484261501211</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0003736286131585213</v>
+        <v>0.002918670270322728</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4510,13 +4680,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.03883495145631068</v>
+        <v>0.08090614886731391</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F6" s="1">
-        <v>0.01378485125590987</v>
+        <v>0.03781997652262453</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -4553,13 +4723,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.04040404040404041</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F7" s="1">
-        <v>0.01535394020363961</v>
+        <v>0.02762089836238132</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -4596,13 +4766,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.04761904761904762</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E8" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F8" s="1">
-        <v>0.02256894741864681</v>
+        <v>0.02358049432197729</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -4639,13 +4809,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.06329113924050633</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F9" s="1">
-        <v>0.03824103904010553</v>
+        <v>0.04552142259201948</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -4682,13 +4852,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.03846153846153846</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="E10" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F10" s="1">
-        <v>0.01341143826113766</v>
+        <v>0.01460613534761832</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -4725,13 +4895,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F11" s="1">
-        <v>0.0249498997995992</v>
+        <v>0.03191382765531062</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -4768,13 +4938,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>0.04545454545454546</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E12" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F12" s="1">
-        <v>0.02040444525414465</v>
+        <v>0.04782291856440153</v>
       </c>
       <c r="G12" s="1">
         <f>1/(POWER(B12,1.5))</f>
@@ -4811,13 +4981,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>0.05555555555555555</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E13" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F13" s="1">
-        <v>0.03050545535515475</v>
+        <v>0.06802493876642172</v>
       </c>
       <c r="G13" s="1">
         <f>1/(POWER(B13,1.5))</f>
@@ -4840,6 +5010,221 @@
       </c>
       <c r="L13" s="1">
         <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.05691382765531063</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.06802493876642172</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.08191382765531062</v>
+      </c>
+      <c r="G16" s="1">
+        <f>1/(POWER(B16,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SQRT((D16-POWER(10,-4))*B16*((1-D16+POWER(10,-4))*B16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <f>G16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K16" s="1">
+        <f>I16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <f>MIN(K16,1-D16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.09977097051245347</v>
+      </c>
+      <c r="G17" s="1">
+        <f>1/(POWER(B17,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f>SQRT((D17-POWER(10,-4))*B17*((1-D17+POWER(10,-4))*B17))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <f>G17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K17" s="1">
+        <f>I17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f>MIN(K17,1-D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.1235804943219773</v>
+      </c>
+      <c r="G18" s="1">
+        <f>1/(POWER(B18,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f>SQRT((D18-POWER(10,-4))*B18*((1-D18+POWER(10,-4))*B18))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f>G18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K18" s="1">
+        <f>I18*J18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f>MIN(K18,1-D18)</f>
         <v>0</v>
       </c>
     </row>
@@ -4851,7 +5236,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4862,7 +5247,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4885,30 +5270,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4917,13 +5302,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.06417112299465241</v>
+        <v>0.0748663101604278</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F4" s="1">
-        <v>0.03912102279425161</v>
+        <v>0.03178013781573842</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -4951,7 +5336,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4963,10 +5348,10 @@
         <v>0.06338028169014084</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F5" s="1">
-        <v>0.03833018148974005</v>
+        <v>0.02029410934545146</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -4994,7 +5379,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3">
         <v>93</v>
@@ -5006,10 +5391,10 @@
         <v>0.07526881720430108</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F6" s="1">
-        <v>0.05021871700390028</v>
+        <v>0.0321826448596117</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5037,7 +5422,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3">
         <v>73</v>
@@ -5046,13 +5431,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0821917808219178</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F7" s="1">
-        <v>0.057141680621517</v>
+        <v>0.02540697834024212</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5080,7 +5465,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B8" s="3">
         <v>54</v>
@@ -5089,13 +5474,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.09259259259259259</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E8" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F8" s="1">
-        <v>0.06754249239219179</v>
+        <v>-0.006049135307652345</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5123,7 +5508,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3">
         <v>37</v>
@@ -5132,13 +5517,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.1081081081081081</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F9" s="1">
-        <v>0.08305800790770732</v>
+        <v>-0.01605914531766235</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5161,49 +5546,6 @@
       </c>
       <c r="L9" s="1">
         <f>MIN(K9,1-D9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="3">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.0250501002004008</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.02040444525414465</v>
-      </c>
-      <c r="G10" s="1">
-        <f>1/(POWER(B10,1.5))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <f>G10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.95996398454</v>
-      </c>
-      <c r="K10" s="1">
-        <f>I10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>MIN(K10,1-D10)</f>
         <v>0</v>
       </c>
     </row>
@@ -5215,7 +5557,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5226,7 +5568,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5249,30 +5591,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -5281,13 +5623,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.02507522567703109</v>
+        <v>0.04312938816449348</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F4" s="1">
-        <v>2.512547663029163E-05</v>
+        <v>4.321581980409883E-05</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5315,7 +5657,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -5324,13 +5666,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.02522704339051463</v>
+        <v>0.04339051463168517</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0001769431901138298</v>
+        <v>0.0003043422869957874</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5358,7 +5700,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -5367,13 +5709,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.03339517625231911</v>
+        <v>0.04267161410018553</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F6" s="1">
-        <v>0.008345076051918306</v>
+        <v>-0.0004145582445038501</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5401,7 +5743,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -5410,13 +5752,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.02616279069767442</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F7" s="1">
-        <v>0.001112690497273618</v>
+        <v>0.003425455562287363</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5444,7 +5786,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3">
         <v>204</v>
@@ -5453,13 +5795,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.01470588235294118</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="E8" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.01034421784745963</v>
+        <v>0.005933435498447874</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5487,7 +5829,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3">
         <v>136</v>
@@ -5496,13 +5838,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.01470588235294118</v>
+        <v>0.05147058823529412</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.01034421784745963</v>
+        <v>0.008384415890604735</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5530,7 +5872,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B10" s="3">
         <v>92</v>
@@ -5539,13 +5881,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.0108695652173913</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E10" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.0141805349830095</v>
+        <v>0.000392088524875836</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5573,7 +5915,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3">
         <v>54</v>
@@ -5582,13 +5924,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>0.01851851851851852</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.006531581681882285</v>
+        <v>0.01246938321086617</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -5611,6 +5953,135 @@
       </c>
       <c r="L11" s="1">
         <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="3">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-0.01451474377326081</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="3">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.01573735706707532</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.06802493876642172</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
         <v>0</v>
       </c>
     </row>
@@ -5633,7 +6104,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5656,30 +6127,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -5688,13 +6159,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.022508038585209</v>
+        <v>0.03215434083601286</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.002542061615191799</v>
+        <v>-0.01093183150867652</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -5722,7 +6193,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -5731,13 +6202,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.02439024390243903</v>
+        <v>0.02642276422764228</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.0006598562979617771</v>
+        <v>-0.0166634081170471</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -5765,7 +6236,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3">
         <v>365</v>
@@ -5774,13 +6245,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.02465753424657534</v>
+        <v>0.03013698630136986</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F6" s="1">
-        <v>-0.0003925659538254606</v>
+        <v>-0.01294918604331952</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
@@ -5808,7 +6279,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3">
         <v>253</v>
@@ -5817,13 +6288,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0.02371541501976284</v>
+        <v>0.03162055335968379</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F7" s="1">
-        <v>-0.001334685180637958</v>
+        <v>-0.01146561898500559</v>
       </c>
       <c r="G7" s="1">
         <f>1/(POWER(B7,1.5))</f>
@@ -5851,7 +6322,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3">
         <v>167</v>
@@ -5860,13 +6331,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>0.02395209580838323</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="E8" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.001098004392017567</v>
+        <v>-0.02512210048840196</v>
       </c>
       <c r="G8" s="1">
         <f>1/(POWER(B8,1.5))</f>
@@ -5894,7 +6365,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3">
         <v>126</v>
@@ -5903,13 +6374,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>0.02380952380952381</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.001240576390876994</v>
+        <v>-0.02721315647167351</v>
       </c>
       <c r="G9" s="1">
         <f>1/(POWER(B9,1.5))</f>
@@ -5937,7 +6408,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3">
         <v>85</v>
@@ -5946,13 +6417,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>0.01176470588235294</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="E10" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F10" s="1">
-        <v>-0.01328539431804786</v>
+        <v>-0.0195567605799835</v>
       </c>
       <c r="G10" s="1">
         <f>1/(POWER(B10,1.5))</f>
@@ -5980,7 +6451,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3">
         <v>65</v>
@@ -5992,10 +6463,10 @@
         <v>0.01538461538461539</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F11" s="1">
-        <v>-0.009665484815785417</v>
+        <v>-0.02770155696007399</v>
       </c>
       <c r="G11" s="1">
         <f>1/(POWER(B11,1.5))</f>
@@ -6029,7 +6500,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6040,7 +6511,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6063,30 +6534,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -6095,10 +6566,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -6129,7 +6600,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -6138,13 +6609,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01464128843338214</v>
+        <v>0.04538799414348463</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.01040881176701866</v>
+        <v>0.002301821798795248</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6167,6 +6638,350 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="3">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.07368421052631578</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.0305980381816264</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.09615384615384616</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.05306767380915678</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="3">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.04387034939444105</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="3">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.02834239908388204</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="3">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.04782291856440153</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.09977097051245347</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.1569138276553106</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.04308617234468938</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.2902471609886439</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
         <v>0</v>
       </c>
     </row>
@@ -6189,7 +7004,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6212,30 +7027,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -6244,13 +7059,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>0.02010050251256281</v>
+        <v>0.03768844221105527</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F4" s="1">
-        <v>-0.004949597687837988</v>
+        <v>-0.005397730133634107</v>
       </c>
       <c r="G4" s="1">
         <f>1/(POWER(B4,1.5))</f>
@@ -6278,7 +7093,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
@@ -6287,13 +7102,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>0.02547770700636943</v>
+        <v>0.05732484076433121</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0004276068059686257</v>
+        <v>0.01423866841964183</v>
       </c>
       <c r="G5" s="1">
         <f>1/(POWER(B5,1.5))</f>
@@ -6321,7 +7136,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B6" s="3">
         <v>75</v>
@@ -6330,13 +7145,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>0.02666666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0250501002004008</v>
+        <v>0.04308617234468938</v>
       </c>
       <c r="F6" s="1">
-        <v>0.001616566466265866</v>
+        <v>0.03691382765531062</v>
       </c>
       <c r="G6" s="1">
         <f>1/(POWER(B6,1.5))</f>
